--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -1726,7 +1726,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>This is an ORG site with a different price file</t>
+          <t>https://goo.gl/maps/gJd9TeY5Upy</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gJd9TeY5Upy</t>
+          <t>This is an ORG site with a different price file</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y100"/>
+  <dimension ref="A1:Y101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 1 , SB 11</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -567,24 +607,64 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 6, SB 10</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 6, SB 10</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 4,5</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -598,24 +678,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bags 7,8</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Bag 4</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bags 4,5</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -624,39 +744,71 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bag 3,4</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Bag 8</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>No Kroger Pick N Save or Mariano stores can have inventories this week</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -666,41 +818,29 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6:30 AM MEET BAYSHORE</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET BAYSHORE</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -709,15 +849,19 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>due to the Thanksgiving Holiday coming up next week</t>
+          <t>No Kroger Pick N Save or Mariano stores can have inventories this week</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -725,7 +869,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET BAYSHORE</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -733,7 +877,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -741,7 +885,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -749,7 +893,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -758,13 +902,17 @@
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>due to the Thanksgiving Holiday coming up next week</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -772,7 +920,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -780,7 +928,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -788,7 +936,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -796,7 +944,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -811,7 +959,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1264, PORT WASHINGTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -819,7 +967,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DOORS WILL BE LOCKED BUT KELLY WILL MEET YOU AT NORTH ENTRANCE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -827,7 +975,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1032 FOND DU LAC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -835,7 +983,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1145 ELKHORN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -843,7 +991,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>600 WALNUT RIDGE DR</t>
+          <t>AURORA OUTPATIENT RX #1067, HARTLAND</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -858,7 +1006,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1475 W GRAND AVE</t>
+          <t>AURORA OUTPATIENT RX #1264, PORT WASHINGTON</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -866,7 +1014,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1223, SHEBOYGAN</t>
+          <t>DOORS WILL BE LOCKED BUT KELLY WILL MEET YOU AT NORTH ENTRANCE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -874,7 +1022,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>210 WISCONSIN AMERICAN DR STE 24</t>
+          <t>AURORA OUTPATIENT RX #1032 FOND DU LAC</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -882,7 +1030,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>W3985 COUNTY ROAD NN</t>
+          <t>AURORA OUTPATIENT RX #1145 ELKHORN</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -890,7 +1038,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
+          <t>600 WALNUT RIDGE DR</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -905,7 +1053,7 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eMESBveZrkcjkpYJ8</t>
+          <t>1475 W GRAND AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -913,7 +1061,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2414 KOHLER MEMORIAL DR</t>
+          <t>AURORA OUTPATIENT RX #1223, SHEBOYGAN</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -921,7 +1069,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/7eYhgLDismavDcYj6</t>
+          <t>210 WISCONSIN AMERICAN DR STE 24</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -929,13 +1077,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DNeRzd2PfnuGBCUo6</t>
+          <t>W3985 COUNTY ROAD NN</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sZu3Qrsu6zC2</t>
+        </is>
+      </c>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
@@ -948,7 +1100,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>APPROX 8:30 AM START</t>
+          <t>https://goo.gl/maps/eMESBveZrkcjkpYJ8</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -956,7 +1108,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/j2hZ78wMHxk</t>
+          <t>2414 KOHLER MEMORIAL DR</t>
         </is>
       </c>
       <c r="K14" t="inlineStr"/>
@@ -964,30 +1116,22 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>https://maps.app.goo.gl/7eYhgLDismavDcYj6</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/DNeRzd2PfnuGBCUo6</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
     </row>
@@ -999,7 +1143,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 8:30 AM START</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1007,7 +1151,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>APPROX 9:00 AM START</t>
+          <t>https://goo.gl/maps/j2hZ78wMHxk</t>
         </is>
       </c>
       <c r="K15" t="inlineStr"/>
@@ -1015,31 +1159,30 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
         <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store,
-Gold Camry, Equip</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1051,7 +1194,7 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AURORA VISION #1167, PORT WASHINGTON</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1059,7 +1202,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>APPROX 9:00 AM START</t>
         </is>
       </c>
       <c r="K16" t="inlineStr"/>
@@ -1067,24 +1210,25 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>AURORA VISION #1153, FOND DU LAC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Gold Camry, Equip</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1102,7 +1246,7 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1475 W GRAND AVE</t>
+          <t>AURORA VISION #1167, PORT WASHINGTON</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1110,7 +1254,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>AURORA VISION #1155, SHEBOYGAN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1118,21 +1262,29 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t xml:space="preserve">210 WISCONSIN AMERICAN DR STE 230 </t>
+          <t>AURORA VISION #1153, FOND DU LAC</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>8:30 AM START</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
@@ -1145,7 +1297,7 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/zCaBSLnNiNJz1Gyv5</t>
+          <t>1475 W GRAND AVE</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -1153,7 +1305,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2414 KOHLER MEMORIAL DR</t>
+          <t>AURORA VISION #1155, SHEBOYGAN</t>
         </is>
       </c>
       <c r="K18" t="inlineStr"/>
@@ -1161,7 +1313,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/oGZe6tQ8u5u </t>
+          <t xml:space="preserve">210 WISCONSIN AMERICAN DR STE 230 </t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -1173,7 +1325,7 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>8:30 AM START</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1186,33 +1338,37 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/zCaBSLnNiNJz1Gyv5</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ZjX4QR1pcB32</t>
+          <t>2414 KOHLER MEMORIAL DR</t>
         </is>
       </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">https://goo.gl/maps/oGZe6tQ8u5u </t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>4:15 AM MEET AT SLINGER PIGGLY WIGGLY</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1224,49 +1380,26 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/ZjX4QR1pcB32</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Pig address:
-1100 E Commerce Blvd, Slinger</t>
+          <t>4:15 AM MEET AT SLINGER PIGGLY WIGGLY</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1274,7 +1407,7 @@
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>AURORA VISION #1171, CALEDONIA</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1288,49 +1421,47 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
           <t>DJ</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Driver,
 Altima, Equip</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>Pig address:
+1100 E Commerce Blvd, Slinger</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1338,7 +1469,7 @@
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
-          <t>5333 DOUGLAS AVE</t>
+          <t>AURORA VISION #1171, CALEDONIA</t>
         </is>
       </c>
       <c r="W21" t="inlineStr"/>
@@ -1350,34 +1481,51 @@
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1385,7 +1533,7 @@
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5RuWP2LTzc14c9Ut7</t>
+          <t>5333 DOUGLAS AVE</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1403,15 +1551,19 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
@@ -1420,13 +1572,17 @@
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1300 WAUTOMA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/5RuWP2LTzc14c9Ut7</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
@@ -1437,48 +1593,36 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>5:30 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>900 E DIVISION ST</t>
+          <t>AURORA OUTPATIENT RX #1300 WAUTOMA</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1490,7 +1634,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:30 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1502,7 +1646,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1510,14 +1654,26 @@
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JhUR6bvog6YmBrm48</t>
+          <t>900 E DIVISION ST</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
     </row>
@@ -1529,23 +1685,19 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1085 MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1553,7 +1705,7 @@
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
-          <t>NEED SCANNER HOODS FOR THIS STORE</t>
+          <t>https://goo.gl/maps/JhUR6bvog6YmBrm48</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -1572,7 +1724,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1580,7 +1732,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -1588,21 +1740,21 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>945 N 12TH ST</t>
+          <t>AURORA OUTPATIENT RX #1085 MILWAUKEE</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>NEED SCANNER HOODS FOR THIS STORE</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
@@ -1615,7 +1767,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3509 DEWEY ST,  SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1042, MANITOWOC</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -1623,7 +1775,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1012, CUDAHY</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -1631,32 +1783,19 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ocvCohDG8tChEG7r9</t>
+          <t>945 N 12TH ST</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima, Equip</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="W28" t="inlineStr"/>
@@ -1671,7 +1810,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+          <t>3509 DEWEY ST,  SUITE 100</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -1679,7 +1818,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>5900 S LAKE DRIVE</t>
+          <t>AURORA OUTPATIENT RX #1012, CUDAHY</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -1687,27 +1826,32 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>PARK IN THE PARKING STRUCTURE AND ENTER THRU THE MAIN ENTRANCE</t>
+          <t>https://goo.gl/maps/ocvCohDG8tChEG7r9</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="W29" t="inlineStr"/>
@@ -1720,13 +1864,17 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/a6JdzRvBpKR2</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gJd9TeY5Upy</t>
+          <t>5900 S LAKE DRIVE</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -1734,19 +1882,27 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>This is an ORG site with a different price file</t>
+          <t>PARK IN THE PARKING STRUCTURE AND ENTER THRU THE MAIN ENTRANCE</t>
         </is>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>ROTE OIL #14 TREVOR (CITGO)</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -1758,33 +1914,24 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Sante Fe,
-Equip</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>This is an ORG site with a different price file</t>
+          <t>https://goo.gl/maps/gJd9TeY5Upy</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>This is an ORG site with a different price file</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
@@ -1794,7 +1941,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>12617 ANTIOCH RD</t>
+          <t>ROTE OIL #14 TREVOR (CITGO)</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -1806,42 +1953,43 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Sante Fe,
+Equip</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>This is an ORG site with a different price file</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Red Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
+          <t>12617 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -1857,38 +2005,30 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Red Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Red Camry available, Equip</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -1896,7 +2036,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/xA9YMzPGc6Vhxi5r8</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -1908,30 +2048,42 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5:00 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Red Camry available, Equip</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -1939,7 +2091,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -1958,7 +2110,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>5:00 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1974,7 +2126,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -1982,7 +2134,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>ROTE OIL #13 TREVOR (BP)</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -1994,34 +2146,30 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>5:30 AM START</t>
-        </is>
-      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>25406 75TH ST</t>
+          <t>ROTE OIL #1 PADDOCK LAKE- BRASS BALL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2029,7 +2177,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>12511 ANTIOCH RD</t>
+          <t>ROTE OIL #13 TREVOR (BP)</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2044,7 +2192,7 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -2052,7 +2200,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2060,7 +2208,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>5:30 AM START</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2068,7 +2216,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
+          <t>25406 75TH ST</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2076,7 +2224,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+          <t>12511 ANTIOCH RD</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2091,7 +2239,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2099,7 +2247,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2107,7 +2255,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2115,13 +2263,17 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/LTa4ckcczx5qc8269</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/iu3xzNwgJ32esP5RA</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2134,7 +2286,7 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -2142,7 +2294,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2150,7 +2302,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>1060 N ROCHESTER ST</t>
+          <t>ROTE OIL #10 MUKWONAGO - ROCHESTER</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2158,26 +2310,14 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2189,7 +2329,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -2197,7 +2337,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2205,7 +2345,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
+          <t>1060 N ROCHESTER ST</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2213,25 +2353,24 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>@ Store,
-Sante Fe</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
@@ -2245,7 +2384,7 @@
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -2253,7 +2392,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2261,7 +2400,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW       </t>
+          <t>https://goo.gl/maps/dmvR5bTHLs1Cbjcr5</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2269,14 +2408,27 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>25555 75TH ST</t>
+          <t>ROTE OIL #2 PADDOCK LAKE- 75TH ST</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
     </row>
@@ -2288,7 +2440,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -2296,7 +2448,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2304,7 +2456,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW       </t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2312,7 +2464,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+          <t>25555 75TH ST</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2331,7 +2483,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2339,7 +2491,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2347,21 +2499,21 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5UyWWXXbzXMaVnv99</t>
+        </is>
+      </c>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
@@ -2374,7 +2526,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2382,7 +2534,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2390,31 +2542,19 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>909 GREENWALD CT</t>
+          <t>ROTE OIL #12 MUKWONAGO - (AMOCO) GREENWALD</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2429,7 +2569,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2437,7 +2577,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2445,32 +2585,31 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
+          <t>909 GREENWALD CT</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store,
-Sante Fe</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2485,7 +2624,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2493,7 +2632,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2501,19 +2640,32 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW    </t>
+          <t>https://goo.gl/maps/ejQSLoz2D8EmzKVq6</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>@ Store,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -2528,7 +2680,7 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -2536,7 +2688,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2544,7 +2696,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW    </t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -2556,7 +2708,7 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -2571,7 +2723,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -2579,7 +2731,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -2587,23 +2739,19 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>2 AT WI AVE CAMPUS, 5 AT SPRING ST CAMPUS (NEED MINI POST IT NOTES)</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr">
         <is>
-          <t>1st time as a scan for this site!</t>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -2618,7 +2766,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -2626,7 +2774,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -2634,7 +2782,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>122 ARROWHEAD DR</t>
+          <t>ROTE OIL  #11 MUKWONAGO - (BP) ARROWHEAD</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -2642,13 +2790,17 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>6:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>2 AT WI AVE CAMPUS, 5 AT SPRING ST CAMPUS (NEED MINI POST IT NOTES)</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>1st time as a scan for this site!</t>
+        </is>
+      </c>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -2659,13 +2811,17 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -2673,7 +2829,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+          <t>122 ARROWHEAD DR</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -2681,26 +2837,14 @@
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -2709,53 +2853,49 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/7XkTFZtDFDgGBctz7</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL   </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -2766,61 +2906,48 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>@ Store,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>ENTER THRU SURGICAL CENTER</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL   </t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -2832,46 +2959,63 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima</t>
+        </is>
+      </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP WI AVE CAMPUS, RACINE</t>
+          <t>ENTER THRU SURGICAL CENTER</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -2890,25 +3034,41 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>1320 WISCONSIN AVE</t>
+          <t>ASCENSION ALL SAINTS HOSP WI AVE CAMPUS, RACINE</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
       <c r="W54" t="inlineStr"/>
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
@@ -2919,17 +3079,13 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -2941,7 +3097,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/raiuDa4wRko</t>
+          <t>1320 WISCONSIN AVE</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -2960,37 +3116,33 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>https://goo.gl/maps/raiuDa4wRko</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3003,31 +3155,19 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3035,7 +3175,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3043,7 +3183,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3058,27 +3198,31 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #493, RACINE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #612, BROOKFIELD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3086,7 +3230,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS, RACINE</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3094,7 +3238,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>CONTACT IS SINGH</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3109,19 +3253,19 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3441 SPRING ST</t>
+          <t>OPEN PANTRY #493, RACINE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3129,7 +3273,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>17235 W BLUEMOUND RD</t>
+          <t>OPEN PANTRY #612, BROOKFIELD</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3137,7 +3281,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>3801 SPRING ST</t>
+          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS, RACINE</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3145,7 +3289,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>DESI MARKET, MILWAUKEE</t>
+          <t>CONTACT IS SINGH</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3160,19 +3304,27 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+          <t>3441 SPRING ST</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
+          <t>17235 W BLUEMOUND RD</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3180,7 +3332,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PjumoiJbqD62</t>
+          <t>3801 SPRING ST</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3188,7 +3340,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>9807 W OKLAHOMA AVE</t>
+          <t>DESI MARKET, MILWAUKEE</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3201,7 +3353,11 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8i7XHemjTpL2</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -3211,7 +3367,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>1st time as a scan for this site!</t>
+          <t>https://goo.gl/maps/awRYbmypZ4H2</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3219,7 +3375,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>NO CELL RECEPTION AT THESE TWO LOCATIONS</t>
+          <t>https://goo.gl/maps/PjumoiJbqD62</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3227,7 +3383,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ZHCFnFGyQ7eMXwRH7</t>
+          <t>9807 W OKLAHOMA AVE</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3239,40 +3395,36 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1st time as a scan for this site!</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>NO CELL RECEPTION AT THESE TWO LOCATIONS</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/ZHCFnFGyQ7eMXwRH7</t>
+        </is>
+      </c>
       <c r="W62" t="inlineStr"/>
       <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
@@ -3284,64 +3436,39 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>Gold Camry, available, Equip</t>
-        </is>
-      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>
     </row>
@@ -3352,65 +3479,64 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima,
-Spring St (Take both your pc's) Cancer Cntr process</t>
-        </is>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Gold Camry, available, Equip</t>
+        </is>
+      </c>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
     </row>
@@ -3421,12 +3547,12 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3434,37 +3560,51 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima,
+Spring St (Take both your pc's) Cancer Cntr process</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
           <t>2)</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Curt</t>
+        </is>
+      </c>
       <c r="W65" t="inlineStr"/>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
@@ -3474,46 +3614,49 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -3533,33 +3676,42 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1st time as a scan for this site!</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>5:45 AM MEET AT OFFICE</t>
-        </is>
-      </c>
+      <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
@@ -3570,15 +3722,15 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>7:00 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>1st time as a scan for this site!</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -3587,12 +3739,12 @@
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -3600,7 +3752,7 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:45 AM MEET AT OFFICE</t>
         </is>
       </c>
       <c r="W68" t="inlineStr"/>
@@ -3615,55 +3767,35 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>7:00 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W69" t="inlineStr"/>
@@ -3678,53 +3810,55 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>@ Store,
-WI Ave 
-(Take your pc)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
         <is>
-          <t>HARRY'S MADISON RD MART (CITGO), BELOIT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -3739,19 +3873,19 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>WOLLER'S TRUE VALUE HARDWARE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3759,19 +3893,33 @@
       <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
-          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store,
+WI Ave 
+(Take your pc)</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
         <is>
-          <t>1343 S  MADISON RD</t>
+          <t>HARRY'S MADISON RD MART (CITGO), BELOIT</t>
         </is>
       </c>
       <c r="W71" t="inlineStr"/>
@@ -3786,19 +3934,19 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>455 E GENEVA ST, ELKHORN</t>
+          <t>WOLLER'S TRUE VALUE HARDWARE</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3806,7 +3954,7 @@
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
-          <t>19333 W NORTH AVE  SUITE 390</t>
+          <t>ASCENSION ELMBROOK HOSPITAL RX #1104</t>
         </is>
       </c>
       <c r="O72" t="inlineStr"/>
@@ -3818,7 +3966,7 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6ffuuVmu3W1yc8UYA</t>
+          <t>1343 S  MADISON RD</t>
         </is>
       </c>
       <c r="W72" t="inlineStr"/>
@@ -3833,33 +3981,41 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/jmxyo6xgZCqqFBsp9</t>
+          <t>455 E GENEVA ST, ELKHORN</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Leyna</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/HnZswssC8QL2</t>
+          <t>19333 W NORTH AVE  SUITE 390</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>5:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6ffuuVmu3W1yc8UYA</t>
+        </is>
+      </c>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -3870,7 +4026,11 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/jmxyo6xgZCqqFBsp9</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
@@ -3880,7 +4040,7 @@
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
-          <t>GO IN THROUGH EMERG ENTRANCE FOR ELMBROOK</t>
+          <t>https://goo.gl/maps/HnZswssC8QL2</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -3888,27 +4048,14 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
       <c r="X74" t="inlineStr"/>
       <c r="Y74" t="inlineStr"/>
     </row>
@@ -3917,35 +4064,18 @@
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van, Equip</t>
-        </is>
-      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>5:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>GO IN THROUGH EMERG ENTRANCE FOR ELMBROOK</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -3953,22 +4083,27 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -3979,20 +4114,25 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van, Equip</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4000,7 +4140,7 @@
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4008,19 +4148,19 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>HARRY'S MARATHON, BELOIT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W76" t="inlineStr"/>
@@ -4034,12 +4174,12 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4047,7 +4187,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4055,7 +4195,7 @@
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
-          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O77" t="inlineStr"/>
@@ -4063,13 +4203,21 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2760 PRAIRIE AVE</t>
+          <t>HARRY'S MARATHON, BELOIT</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>
@@ -4081,12 +4229,12 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4094,7 +4242,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, BELOIT - RIVERSIDE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4102,7 +4250,7 @@
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
-          <t>201 N MAYFAIR RD</t>
+          <t>ASCENSION ST JOSEPH-MAYFAIR RX #1106, TOSA</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -4110,7 +4258,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oWwbVkmjDjHGEoNr5</t>
+          <t>2760 PRAIRIE AVE</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4128,12 +4276,12 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -4141,7 +4289,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>2405 S RIVERSIDE</t>
+          <t>HARRY'S MOBIL, BELOIT - RIVERSIDE</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4149,7 +4297,7 @@
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/efsuGG591Ms</t>
+          <t>201 N MAYFAIR RD</t>
         </is>
       </c>
       <c r="O79" t="inlineStr"/>
@@ -4157,7 +4305,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/oWwbVkmjDjHGEoNr5</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4175,12 +4323,12 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4188,7 +4336,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TYGRw8Jk6TJmec1V8</t>
+          <t>2405 S RIVERSIDE</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4196,7 +4344,7 @@
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
-          <t>ENTER NEAR THE PARKING GARAGE FOR MAYFAIR</t>
+          <t>https://goo.gl/maps/efsuGG591Ms</t>
         </is>
       </c>
       <c r="O80" t="inlineStr"/>
@@ -4204,7 +4352,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -4222,24 +4370,20 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/TYGRw8Jk6TJmec1V8</t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4247,7 +4391,7 @@
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>ENTER NEAR THE PARKING GARAGE FOR MAYFAIR</t>
         </is>
       </c>
       <c r="O81" t="inlineStr"/>
@@ -4255,7 +4399,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>HARRY'S CITGO, BELOIT</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -4273,12 +4417,12 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -4290,7 +4434,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4298,7 +4442,7 @@
       <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="O82" t="inlineStr"/>
@@ -4306,7 +4450,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>1888 SHOPIERE RD</t>
+          <t>HARRY'S CITGO, BELOIT</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -4324,12 +4468,12 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4341,7 +4485,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, BELOIT - LIBERTY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4349,7 +4493,7 @@
       <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
-          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O83" t="inlineStr"/>
@@ -4357,7 +4501,7 @@
       <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
+          <t>1888 SHOPIERE RD</t>
         </is>
       </c>
       <c r="S83" t="inlineStr"/>
@@ -4373,14 +4517,26 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1407 LIBERTY AVE</t>
+          <t>HARRY'S MOBIL, BELOIT - LIBERTY</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4388,13 +4544,17 @@
       <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
-          <t>7400 W RAWSON AVE, SUITE 140</t>
+          <t>ASCENSION AMG RAWSON AVE RX #1116, FRANKLIN</t>
         </is>
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
@@ -4415,7 +4575,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/bqynFZtDk9LorYqT6</t>
+          <t>1407 LIBERTY AVE</t>
         </is>
       </c>
       <c r="K85" t="inlineStr"/>
@@ -4423,27 +4583,14 @@
       <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
+          <t>7400 W RAWSON AVE, SUITE 140</t>
         </is>
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
@@ -4457,32 +4604,41 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>5:45 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/bqynFZtDk9LorYqT6</t>
+        </is>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JDSt1uteEWoVQ3wg8</t>
+        </is>
+      </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
@@ -4498,59 +4654,30 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:45 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>@ Store, Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>@ Store,
-Train w/ Lashaun</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
@@ -4566,42 +4693,59 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Optima, Equip</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>@ Store,
+Train w/ Lashaun</t>
+        </is>
+      </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
@@ -4617,17 +4761,37 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, BELOIT - SHOPIERE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
@@ -4648,7 +4812,7 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>1902 SHOPIERE RD</t>
+          <t>HARRY'S MOBIL, BELOIT - SHOPIERE</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -4679,17 +4843,13 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ENk9ERQQnFMmUtd77</t>
+          <t>1902 SHOPIERE RD</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="inlineStr"/>
@@ -4714,7 +4874,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/ENk9ERQQnFMmUtd77</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -4722,7 +4882,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K92" t="inlineStr"/>
@@ -4749,13 +4909,17 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
@@ -4780,7 +4944,7 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>HARRY'S MOBIL, BELOIT-PARK</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -4811,7 +4975,7 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1771 PARK AVENUE</t>
+          <t>HARRY'S MOBIL, BELOIT-PARK</t>
         </is>
       </c>
       <c r="G95" t="inlineStr"/>
@@ -4842,7 +5006,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/1TXLxcEZEMRAMkHL6</t>
+          <t>1771 PARK AVENUE</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
@@ -4871,7 +5035,11 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/1TXLxcEZEMRAMkHL6</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
@@ -4897,22 +5065,9 @@
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>@ Store,
-Red Camry, Equip</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4939,17 +5094,18 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -4978,18 +5134,17 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>@ Store,
-Train w/ Lashaun</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -5011,6 +5166,46 @@
       <c r="X100" t="inlineStr"/>
       <c r="Y100" t="inlineStr"/>
     </row>
+    <row r="101">
+      <c r="A101" t="inlineStr"/>
+      <c r="B101" t="inlineStr"/>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>@ Store,
+Train w/ Lashaun</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -4710,7 +4710,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>@ Store, Optima, Equip</t>
+          <t>@ Store, Sante Fe, Equip</t>
         </is>
       </c>
       <c r="L88" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -3744,10 +3744,14 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
@@ -3787,10 +3791,14 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
@@ -3839,21 +3847,9 @@
       </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr">
@@ -3898,23 +3894,9 @@
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>@ Store,
-WI Ave 
-(Take your pc)</t>
-        </is>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr">
@@ -3960,7 +3942,11 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4007,7 +3993,11 @@
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
@@ -4048,7 +4038,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE MEET</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4083,7 +4073,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>HARRY'S MARATHON, BELOIT</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4148,7 +4138,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>2760 PRAIRIE AVE</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4203,7 +4193,7 @@
       <c r="Q77" t="inlineStr"/>
       <c r="R77" t="inlineStr">
         <is>
-          <t>HARRY'S MARATHON, BELOIT</t>
+          <t>https://goo.gl/maps/oWwbVkmjDjHGEoNr5</t>
         </is>
       </c>
       <c r="S77" t="inlineStr"/>
@@ -4258,7 +4248,7 @@
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>2760 PRAIRIE AVE</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S78" t="inlineStr"/>
@@ -4305,7 +4295,7 @@
       <c r="Q79" t="inlineStr"/>
       <c r="R79" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oWwbVkmjDjHGEoNr5</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4352,7 +4342,7 @@
       <c r="Q80" t="inlineStr"/>
       <c r="R80" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>HARRY'S CITGO, BELOIT</t>
         </is>
       </c>
       <c r="S80" t="inlineStr"/>
@@ -4399,7 +4389,7 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>1888 SHOPIERE RD</t>
         </is>
       </c>
       <c r="S81" t="inlineStr"/>
@@ -4450,7 +4440,7 @@
       <c r="Q82" t="inlineStr"/>
       <c r="R82" t="inlineStr">
         <is>
-          <t>HARRY'S CITGO, BELOIT</t>
+          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
         </is>
       </c>
       <c r="S82" t="inlineStr"/>
@@ -4499,11 +4489,7 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>1888 SHOPIERE RD</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
@@ -4549,13 +4535,22 @@
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -4588,8 +4583,16 @@
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
@@ -4625,18 +4628,18 @@
       <c r="P86" t="inlineStr"/>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry, Equip</t>
+          <t>@ Store,
+Train w/ Lashaun</t>
         </is>
       </c>
       <c r="T86" t="inlineStr"/>
@@ -4667,16 +4670,8 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
       <c r="S87" t="inlineStr"/>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
@@ -4730,22 +4725,9 @@
         </is>
       </c>
       <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>@ Store,
-Train w/ Lashaun</t>
-        </is>
-      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -2790,7 +2790,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>2 AT WI AVE CAMPUS, 5 AT SPRING ST CAMPUS (NEED MINI POST IT NOTES)</t>
+          <t>(NEED MINI POST IT NOTES)</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -2935,7 +2935,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL   </t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3003,7 +3003,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>ENTER THRU SURGICAL CENTER</t>
+          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS, RACINE</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3054,7 +3054,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP WI AVE CAMPUS, RACINE</t>
+          <t>3801 SPRING ST</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3097,7 +3097,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>1320 WISCONSIN AVE</t>
+          <t>https://goo.gl/maps/PjumoiJbqD62</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3136,7 +3136,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/raiuDa4wRko</t>
+          <t>NO CELL RECEPTION AT THESE TWO LOCATIONS</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3173,11 +3173,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3228,11 +3224,7 @@
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
@@ -3278,13 +3270,23 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>ASCENSION ALL SAINTS HOSP SPRING ST CAMPUS, RACINE</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store,
+Optima,
+Spring St (Take both your pc's) Cancer Cntr process</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
@@ -3329,10 +3331,14 @@
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>3801 SPRING ST</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3372,13 +3378,22 @@
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PjumoiJbqD62</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
@@ -3411,13 +3426,21 @@
       </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>NO CELL RECEPTION AT THESE TWO LOCATIONS</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
@@ -3462,9 +3485,21 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -3577,23 +3612,9 @@
       </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima,
-Spring St (Take both your pc's) Cancer Cntr process</t>
-        </is>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
@@ -3646,14 +3667,10 @@
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>5:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -3693,22 +3710,13 @@
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -3737,21 +3745,13 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr">
@@ -3784,21 +3784,13 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>HARRY'S MARATHON, BELOIT</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr">
@@ -3848,7 +3840,11 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>2760 PRAIRIE AVE</t>
+        </is>
+      </c>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -3895,7 +3891,11 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/oWwbVkmjDjHGEoNr5</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
@@ -3944,7 +3944,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE MEET</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -3995,7 +3995,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4038,7 +4038,7 @@
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>HARRY'S CITGO, BELOIT</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -4073,7 +4073,7 @@
       <c r="Q75" t="inlineStr"/>
       <c r="R75" t="inlineStr">
         <is>
-          <t>HARRY'S MARATHON, BELOIT</t>
+          <t>1888 SHOPIERE RD</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -4138,7 +4138,7 @@
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2760 PRAIRIE AVE</t>
+          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
         </is>
       </c>
       <c r="S76" t="inlineStr"/>
@@ -4191,11 +4191,7 @@
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/oWwbVkmjDjHGEoNr5</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
@@ -4245,13 +4241,22 @@
       </c>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry, Equip</t>
+        </is>
+      </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
@@ -4292,10 +4297,14 @@
       </c>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S79" t="inlineStr"/>
@@ -4339,13 +4348,22 @@
       </c>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>HARRY'S CITGO, BELOIT</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>@ Store,
+Train w/ Lashaun</t>
+        </is>
+      </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
@@ -4387,11 +4405,7 @@
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>1888 SHOPIERE RD</t>
-        </is>
-      </c>
+      <c r="R81" t="inlineStr"/>
       <c r="S81" t="inlineStr"/>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
@@ -4438,11 +4452,7 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/unBzKKpt6UgbiniP6</t>
-        </is>
-      </c>
+      <c r="R82" t="inlineStr"/>
       <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
@@ -4535,22 +4545,9 @@
       </c>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
@@ -4583,16 +4580,8 @@
       </c>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
@@ -4626,22 +4615,9 @@
       </c>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>@ Store,
-Train w/ Lashaun</t>
-        </is>
-      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -1175,7 +1175,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3179,7 +3179,7 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:45 AM MEET AT OFFICE</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3230,7 +3230,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3291,7 +3291,7 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>CONTACT IS SINGH</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3346,7 +3346,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>DESI MARKET, MILWAUKEE</t>
+          <t>HARRY'S MADISON RD MART (CITGO), BELOIT</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3398,7 +3398,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>9807 W OKLAHOMA AVE</t>
+          <t>1343 S  MADISON RD</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3445,7 +3445,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/ZHCFnFGyQ7eMXwRH7</t>
+          <t>https://goo.gl/maps/6ffuuVmu3W1yc8UYA</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3564,12 +3564,13 @@
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>Gold Camry, available, Equip</t>
+          <t>Driver,
+Red Camry, Equip</t>
         </is>
       </c>
       <c r="X64" t="inlineStr"/>
@@ -3623,7 +3624,7 @@
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -3675,8 +3676,16 @@
       </c>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -3754,11 +3763,7 @@
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>5:45 AM MEET AT OFFICE</t>
-        </is>
-      </c>
+      <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
@@ -3793,11 +3798,7 @@
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
@@ -3848,11 +3849,7 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
@@ -3899,11 +3896,7 @@
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>HARRY'S MADISON RD MART (CITGO), BELOIT</t>
-        </is>
-      </c>
+      <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
@@ -3950,11 +3943,7 @@
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>1343 S  MADISON RD</t>
-        </is>
-      </c>
+      <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
@@ -4001,11 +3990,7 @@
       <c r="S73" t="inlineStr"/>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/6ffuuVmu3W1yc8UYA</t>
-        </is>
-      </c>
+      <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
@@ -4078,22 +4063,9 @@
       </c>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry, Equip</t>
-        </is>
-      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
     </row>
@@ -4143,16 +4115,8 @@
       </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Lexi</t>
-        </is>
-      </c>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
@@ -4194,16 +4158,8 @@
       <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
       <c r="X77" t="inlineStr"/>
       <c r="Y77" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -2075,7 +2075,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>

--- a/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
+++ b/11-17-24 to 11-23-24 Milwaukee Schedule.xlsx
@@ -1228,7 +1228,7 @@
       <c r="S16" t="inlineStr">
         <is>
           <t>@ Store,
-Gold Camry, Equip</t>
+Red Van, Equip</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -3282,8 +3282,7 @@
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store,
-Optima,
+          <t>Meeting Kim @ Office
 Spring St (Take both your pc's) Cancer Cntr process</t>
         </is>
       </c>
@@ -3391,7 +3390,7 @@
       <c r="S61" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Optima</t>
         </is>
       </c>
       <c r="T61" t="inlineStr"/>
